--- a/3) Planning/7. Planning_20190405.xlsx
+++ b/3) Planning/7. Planning_20190405.xlsx
@@ -18,11 +18,137 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>TAREA</t>
+  </si>
+  <si>
+    <t>RESP</t>
+  </si>
+  <si>
+    <t>DESC</t>
+  </si>
+  <si>
+    <t>LECTURA DE REQUISITOS DEL PROYECTO</t>
+  </si>
+  <si>
+    <t>REPARTICION DE TAREAS Y DOCUMENTACION</t>
+  </si>
+  <si>
+    <t>PROJECT SCOPE</t>
+  </si>
+  <si>
+    <t>DELIVERABLES</t>
+  </si>
+  <si>
+    <t>DEVELOPMENT METHODOLOGY</t>
+  </si>
+  <si>
+    <t>SOLVING PROBLEM STRATEGY</t>
+  </si>
+  <si>
+    <t>DESIGN</t>
+  </si>
+  <si>
+    <t>STANDARDS</t>
+  </si>
+  <si>
+    <t>NAMING CONVENTIONS</t>
+  </si>
+  <si>
+    <t>TESTING</t>
+  </si>
+  <si>
+    <t>VERIFICATIONSTRATEGY</t>
+  </si>
+  <si>
+    <t>WHITE BOX STRATEGY</t>
+  </si>
+  <si>
+    <t>CYCLOMATIC COMPLEXITY REDUNDANCE INDEX</t>
+  </si>
+  <si>
+    <t>RELEASE</t>
+  </si>
+  <si>
+    <t>INTEGRATION TESTS STRATEGY</t>
+  </si>
+  <si>
+    <t>VALIDATION TESTING</t>
+  </si>
+  <si>
+    <t>THROUGHPUT AND FLASH AND RAM MEASURERMENT</t>
+  </si>
+  <si>
+    <t>RESULTS</t>
+  </si>
+  <si>
+    <t>MODULOS DE SOFTWARE</t>
+  </si>
+  <si>
+    <t>DOCUMENTACION</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>PWM</t>
+  </si>
+  <si>
+    <t>IRQ´S</t>
+  </si>
+  <si>
+    <t>THREADS</t>
+  </si>
+  <si>
+    <t>SPI LCD</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMUNICACION QUEUE </t>
+  </si>
+  <si>
+    <t>J. ANTONIO PINTOR / GABRIEL SOLIS</t>
+  </si>
+  <si>
+    <t>PLANNING</t>
+  </si>
+  <si>
+    <t>ESTIMATES</t>
+  </si>
+  <si>
+    <t>GABRIEL SOLIS</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -49,8 +175,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -69,7 +200,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -331,12 +462,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/3) Planning/7. Planning_20190405.xlsx
+++ b/3) Planning/7. Planning_20190405.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03932691-5F33-4374-B253-E363231363D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="12705" yWindow="4260" windowWidth="14610" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>#</t>
   </si>
@@ -124,12 +125,15 @@
   </si>
   <si>
     <t>GABRIEL SOLIS</t>
+  </si>
+  <si>
+    <t>J. ANTONIO PINTOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -461,14 +465,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
@@ -524,6 +528,9 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -532,6 +539,9 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -540,6 +550,9 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -553,6 +566,9 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
       <c r="B9" t="s">
         <v>32</v>
       </c>
@@ -562,15 +578,18 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -581,7 +600,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -592,53 +611,83 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -646,27 +695,48 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
@@ -674,7 +744,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
@@ -682,7 +755,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>26</v>
+      </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
@@ -690,7 +766,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27</v>
+      </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
@@ -698,7 +777,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
     </row>
   </sheetData>

--- a/3) Planning/7. Planning_20190405.xlsx
+++ b/3) Planning/7. Planning_20190405.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C609757A-7396-4859-B420-5568D34CE549}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C9315A-7A24-4801-877F-836C8CD9D6BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="34">
   <si>
     <t>DOCUMENTACION</t>
   </si>
@@ -110,6 +110,18 @@
   </si>
   <si>
     <t xml:space="preserve">MEDIDA THROUGHPUT </t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO PINTOR JARAMILLO</t>
+  </si>
+  <si>
+    <t>GABRIEL SOLIS OLGUIN</t>
+  </si>
+  <si>
+    <t>ING 1:</t>
+  </si>
+  <si>
+    <t>ING 2:</t>
   </si>
 </sst>
 </file>
@@ -155,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -332,11 +344,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -409,12 +511,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="59">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -891,9 +1010,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -928,25 +1044,25 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DEDDD8DC-8C9C-49B0-8CDC-91900438DB31}" name="GANTT" displayName="GANTT" ref="A1:S20" headerRowCount="0" headerRowDxfId="58" dataDxfId="57">
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{75BF944D-4B3E-4155-AABB-FBA8ED6ED6D9}" name="Columna1" totalsRowLabel="Total" headerRowDxfId="55" dataDxfId="54" totalsRowDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{FEEE0212-AC50-41C9-AE6D-A23856A137E8}" name="Columna2" headerRowDxfId="52" dataDxfId="51" totalsRowDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{C120F997-E6A0-431B-BD93-CA9B9120DCCA}" name="Columna3" headerRowDxfId="49" dataDxfId="48" totalsRowDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{73EB5A8B-A757-48B9-AC36-914F339EA646}" name="Columna4" headerRowDxfId="46" dataDxfId="45" totalsRowDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{CBFB859C-4FD8-4909-A412-85FC8D3F4610}" name="Columna5" headerRowDxfId="43" dataDxfId="42" totalsRowDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{C795F1C3-FFE8-4318-9D69-D8453B40AE3C}" name="Columna6" headerRowDxfId="40" dataDxfId="39" totalsRowDxfId="41"/>
-    <tableColumn id="7" xr3:uid="{3FA9CF76-9CF2-40FC-B772-2B24CF7A75C8}" name="Columna7" headerRowDxfId="37" dataDxfId="36" totalsRowDxfId="38"/>
-    <tableColumn id="8" xr3:uid="{EE490AF5-1D49-4B0C-86F9-70B8C686B9CA}" name="Columna8" headerRowDxfId="34" dataDxfId="33" totalsRowDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{53FAD774-D063-4208-B643-A1D1AE3C3C87}" name="Columna9" headerRowDxfId="31" dataDxfId="30" totalsRowDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{3BFBE08B-38AB-42D0-B966-642867008A31}" name="Columna10" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{3E60CBD5-DF17-453E-AECD-1CB27E41EE23}" name="Columna11" headerRowDxfId="25" dataDxfId="24" totalsRowDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{02890528-0BEE-4751-A167-F9D8E8B7DFEF}" name="Columna12" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{25CD1925-479E-411F-BFCF-CC5D3A4015EB}" name="Columna13" headerRowDxfId="19" dataDxfId="18" totalsRowDxfId="20"/>
-    <tableColumn id="14" xr3:uid="{16B78EEF-8CDC-476B-854A-F3E18811D044}" name="Columna14" headerRowDxfId="16" dataDxfId="15" totalsRowDxfId="17"/>
-    <tableColumn id="15" xr3:uid="{E0FEDE94-1B0C-4F39-A0A2-30E1422D856C}" name="Columna15" headerRowDxfId="13" dataDxfId="12" totalsRowDxfId="14"/>
-    <tableColumn id="16" xr3:uid="{6FE65063-3EFA-4A8D-A262-302FD40681C1}" name="Columna16" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="11"/>
-    <tableColumn id="17" xr3:uid="{DAE3C80D-8EC3-4D9E-813A-80C492D78333}" name="Columna17" headerRowDxfId="7" dataDxfId="6" totalsRowDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{50572D7E-DAA2-467A-AA4F-2114F5667128}" name="Columna18" headerRowDxfId="4" dataDxfId="3" totalsRowDxfId="5"/>
-    <tableColumn id="19" xr3:uid="{0AB2AFC2-4177-41AF-B59A-DA308BAC2C10}" name="Columna19" totalsRowFunction="count" headerRowDxfId="1" dataDxfId="0" totalsRowDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{75BF944D-4B3E-4155-AABB-FBA8ED6ED6D9}" name="Columna1" totalsRowLabel="Total" headerRowDxfId="56" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{FEEE0212-AC50-41C9-AE6D-A23856A137E8}" name="Columna2" headerRowDxfId="53" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{C120F997-E6A0-431B-BD93-CA9B9120DCCA}" name="Columna3" headerRowDxfId="50" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{73EB5A8B-A757-48B9-AC36-914F339EA646}" name="Columna4" headerRowDxfId="47" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{CBFB859C-4FD8-4909-A412-85FC8D3F4610}" name="Columna5" headerRowDxfId="44" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{C795F1C3-FFE8-4318-9D69-D8453B40AE3C}" name="Columna6" headerRowDxfId="41" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{3FA9CF76-9CF2-40FC-B772-2B24CF7A75C8}" name="Columna7" headerRowDxfId="38" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{EE490AF5-1D49-4B0C-86F9-70B8C686B9CA}" name="Columna8" headerRowDxfId="35" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{53FAD774-D063-4208-B643-A1D1AE3C3C87}" name="Columna9" headerRowDxfId="32" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{3BFBE08B-38AB-42D0-B966-642867008A31}" name="Columna10" headerRowDxfId="29" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{3E60CBD5-DF17-453E-AECD-1CB27E41EE23}" name="Columna11" headerRowDxfId="26" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{02890528-0BEE-4751-A167-F9D8E8B7DFEF}" name="Columna12" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{25CD1925-479E-411F-BFCF-CC5D3A4015EB}" name="Columna13" headerRowDxfId="20" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{16B78EEF-8CDC-476B-854A-F3E18811D044}" name="Columna14" headerRowDxfId="17" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{E0FEDE94-1B0C-4F39-A0A2-30E1422D856C}" name="Columna15" headerRowDxfId="14" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{6FE65063-3EFA-4A8D-A262-302FD40681C1}" name="Columna16" headerRowDxfId="11" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="17" xr3:uid="{DAE3C80D-8EC3-4D9E-813A-80C492D78333}" name="Columna17" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{50572D7E-DAA2-467A-AA4F-2114F5667128}" name="Columna18" headerRowDxfId="5" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{0AB2AFC2-4177-41AF-B59A-DA308BAC2C10}" name="Columna19" totalsRowFunction="count" headerRowDxfId="2" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1215,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4B734D-5514-40E2-AE61-5B9B4DE702FB}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1958,7 +2074,32 @@
       </c>
       <c r="S20" s="18"/>
     </row>
+    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/3) Planning/7. Planning_20190405.xlsx
+++ b/3) Planning/7. Planning_20190405.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C9315A-7A24-4801-877F-836C8CD9D6BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4A5E54-D961-4BB3-B395-EF5D06A18884}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="0" windowWidth="14610" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GRANTT DIAGRAM" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="35">
   <si>
     <t>DOCUMENTACION</t>
   </si>
@@ -122,13 +122,16 @@
   </si>
   <si>
     <t>ING 2:</t>
+  </si>
+  <si>
+    <t>DIAGRAMA DE GANTT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +150,15 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -438,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -513,17 +525,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1042,7 +1057,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DEDDD8DC-8C9C-49B0-8CDC-91900438DB31}" name="GANTT" displayName="GANTT" ref="A1:S20" headerRowCount="0" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DEDDD8DC-8C9C-49B0-8CDC-91900438DB31}" name="GANTT" displayName="GANTT" ref="A2:S21" headerRowCount="0" headerRowDxfId="58" dataDxfId="57">
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{75BF944D-4B3E-4155-AABB-FBA8ED6ED6D9}" name="Columna1" totalsRowLabel="Total" headerRowDxfId="56" dataDxfId="55" totalsRowDxfId="54"/>
     <tableColumn id="2" xr3:uid="{FEEE0212-AC50-41C9-AE6D-A23856A137E8}" name="Columna2" headerRowDxfId="53" dataDxfId="52" totalsRowDxfId="51"/>
@@ -1331,177 +1346,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4B734D-5514-40E2-AE61-5B9B4DE702FB}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+    </row>
+    <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="1" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="1" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="1" t="s">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9" t="s">
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D3" s="10">
         <v>16</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E3" s="11">
         <v>17</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F3" s="11">
         <v>18</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G3" s="12">
         <v>19</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H3" s="10">
         <v>20</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I3" s="11">
         <v>21</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J3" s="11">
         <v>22</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K3" s="12">
         <v>23</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L3" s="10">
         <v>24</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M3" s="11">
         <v>25</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N3" s="11">
         <v>26</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O3" s="12">
         <v>27</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P3" s="10">
         <v>28</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q3" s="11">
         <v>29</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R3" s="11">
         <v>30</v>
       </c>
-      <c r="S2" s="12">
+      <c r="S3" s="12">
         <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7">
-        <v>16</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" s="22" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>10</v>
@@ -1509,24 +1474,52 @@
       <c r="E4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="15"/>
+      <c r="F4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="22" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>9</v>
@@ -1557,108 +1550,104 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="7">
-        <v>12</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>10</v>
+      </c>
       <c r="F6" s="14"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R6" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6" s="22" t="s">
-        <v>10</v>
-      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="15"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="21" t="s">
-        <v>10</v>
-      </c>
+      <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="15"/>
+      <c r="H7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="22" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>10</v>
-      </c>
+      <c r="E8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="15"/>
       <c r="L8" s="13"/>
@@ -1672,87 +1661,93 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
+      <c r="F9" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>10</v>
+      </c>
       <c r="H9" s="20" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R9" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="S9" s="22" t="s">
-        <v>10</v>
-      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="15"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="I10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="15"/>
+      <c r="J10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="22" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>19</v>
@@ -1765,10 +1760,10 @@
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="21" t="s">
-        <v>10</v>
-      </c>
+      <c r="I11" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="14"/>
       <c r="K11" s="15"/>
       <c r="L11" s="13"/>
       <c r="M11" s="14"/>
@@ -1781,13 +1776,13 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14"/>
@@ -1795,13 +1790,11 @@
       <c r="G12" s="15"/>
       <c r="H12" s="13"/>
       <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>10</v>
-      </c>
+      <c r="J12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="15"/>
+      <c r="L12" s="13"/>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
       <c r="O12" s="15"/>
@@ -1812,13 +1805,13 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14"/>
@@ -1827,16 +1820,14 @@
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
+      <c r="K13" s="22" t="s">
+        <v>10</v>
+      </c>
       <c r="L13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="21" t="s">
-        <v>10</v>
-      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
       <c r="O13" s="15"/>
       <c r="P13" s="13"/>
       <c r="Q13" s="14"/>
@@ -1845,13 +1836,13 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14"/>
@@ -1859,19 +1850,17 @@
       <c r="G14" s="15"/>
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="22" t="s">
-        <v>10</v>
-      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="15"/>
       <c r="L14" s="20" t="s">
         <v>10</v>
       </c>
       <c r="M14" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="14"/>
+      <c r="N14" s="21" t="s">
+        <v>10</v>
+      </c>
       <c r="O14" s="15"/>
       <c r="P14" s="13"/>
       <c r="Q14" s="14"/>
@@ -1880,13 +1869,13 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="14"/>
@@ -1894,17 +1883,19 @@
       <c r="G15" s="15"/>
       <c r="H15" s="13"/>
       <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
+      <c r="J15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>10</v>
+      </c>
       <c r="L15" s="20" t="s">
         <v>10</v>
       </c>
       <c r="M15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="21" t="s">
-        <v>10</v>
-      </c>
+      <c r="N15" s="14"/>
       <c r="O15" s="15"/>
       <c r="P15" s="13"/>
       <c r="Q15" s="14"/>
@@ -1913,38 +1904,40 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="19"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="15"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" s="20" t="s">
-        <v>10</v>
-      </c>
+      <c r="L16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="15"/>
+      <c r="P16" s="13"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
       <c r="S16" s="15"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>9</v>
@@ -1956,32 +1949,32 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="13"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="15"/>
       <c r="L17" s="13"/>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
-      <c r="O17" s="15"/>
+      <c r="O17" s="22" t="s">
+        <v>10</v>
+      </c>
       <c r="P17" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="Q17" s="21" t="s">
-        <v>10</v>
-      </c>
+      <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
       <c r="S17" s="15"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="14"/>
@@ -1990,18 +1983,10 @@
       <c r="H18" s="13"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="M18" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" s="21" t="s">
-        <v>10</v>
-      </c>
+      <c r="K18" s="15"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
       <c r="O18" s="15"/>
       <c r="P18" s="20" t="s">
         <v>10</v>
@@ -2009,20 +1994,18 @@
       <c r="Q18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="R18" s="21" t="s">
-        <v>10</v>
-      </c>
+      <c r="R18" s="14"/>
       <c r="S18" s="15"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="14"/>
@@ -2031,78 +2014,121 @@
       <c r="H19" s="13"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
+      <c r="K19" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>10</v>
+      </c>
       <c r="O19" s="15"/>
-      <c r="P19" s="13"/>
+      <c r="P19" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="Q19" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="R19" s="14"/>
+      <c r="R19" s="21" t="s">
+        <v>10</v>
+      </c>
       <c r="S19" s="15"/>
     </row>
-    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="R20" s="14"/>
+      <c r="S20" s="15"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C21" s="8">
         <v>2</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R20" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="S20" s="18"/>
-    </row>
-    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="25" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R21" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="S21" s="18"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C23" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-    </row>
-    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="28" t="s">
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C24" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C22:E22"/>
+  <mergeCells count="3">
     <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/3) Planning/7. Planning_20190405.xlsx
+++ b/3) Planning/7. Planning_20190405.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4A5E54-D961-4BB3-B395-EF5D06A18884}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="0" windowWidth="14610" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="0" windowWidth="14610" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="GRANTT DIAGRAM" sheetId="2" r:id="rId1"/>
@@ -46,9 +45,6 @@
     <t>JULIO</t>
   </si>
   <si>
-    <t>PTS\FW</t>
-  </si>
-  <si>
     <t>ING 1, 2</t>
   </si>
   <si>
@@ -125,12 +121,15 @@
   </si>
   <si>
     <t>DIAGRAMA DE GANTT</t>
+  </si>
+  <si>
+    <t>PTS\SF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -566,7 +565,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -591,7 +589,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -616,7 +613,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -641,7 +637,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -666,7 +661,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -691,7 +685,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -716,7 +709,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -741,7 +733,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -766,7 +757,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -791,7 +781,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -816,7 +805,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -841,7 +829,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -866,7 +853,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -891,7 +877,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -916,7 +901,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -941,7 +925,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -966,7 +949,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -991,7 +973,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1016,7 +997,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1038,7 +1018,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1057,27 +1036,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DEDDD8DC-8C9C-49B0-8CDC-91900438DB31}" name="GANTT" displayName="GANTT" ref="A2:S21" headerRowCount="0" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="GANTT" displayName="GANTT" ref="A2:S21" headerRowCount="0" headerRowDxfId="58" dataDxfId="57">
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{75BF944D-4B3E-4155-AABB-FBA8ED6ED6D9}" name="Columna1" totalsRowLabel="Total" headerRowDxfId="56" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{FEEE0212-AC50-41C9-AE6D-A23856A137E8}" name="Columna2" headerRowDxfId="53" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{C120F997-E6A0-431B-BD93-CA9B9120DCCA}" name="Columna3" headerRowDxfId="50" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{73EB5A8B-A757-48B9-AC36-914F339EA646}" name="Columna4" headerRowDxfId="47" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{CBFB859C-4FD8-4909-A412-85FC8D3F4610}" name="Columna5" headerRowDxfId="44" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{C795F1C3-FFE8-4318-9D69-D8453B40AE3C}" name="Columna6" headerRowDxfId="41" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="7" xr3:uid="{3FA9CF76-9CF2-40FC-B772-2B24CF7A75C8}" name="Columna7" headerRowDxfId="38" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{EE490AF5-1D49-4B0C-86F9-70B8C686B9CA}" name="Columna8" headerRowDxfId="35" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{53FAD774-D063-4208-B643-A1D1AE3C3C87}" name="Columna9" headerRowDxfId="32" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{3BFBE08B-38AB-42D0-B966-642867008A31}" name="Columna10" headerRowDxfId="29" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{3E60CBD5-DF17-453E-AECD-1CB27E41EE23}" name="Columna11" headerRowDxfId="26" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{02890528-0BEE-4751-A167-F9D8E8B7DFEF}" name="Columna12" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{25CD1925-479E-411F-BFCF-CC5D3A4015EB}" name="Columna13" headerRowDxfId="20" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{16B78EEF-8CDC-476B-854A-F3E18811D044}" name="Columna14" headerRowDxfId="17" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="15" xr3:uid="{E0FEDE94-1B0C-4F39-A0A2-30E1422D856C}" name="Columna15" headerRowDxfId="14" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="16" xr3:uid="{6FE65063-3EFA-4A8D-A262-302FD40681C1}" name="Columna16" headerRowDxfId="11" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{DAE3C80D-8EC3-4D9E-813A-80C492D78333}" name="Columna17" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="18" xr3:uid="{50572D7E-DAA2-467A-AA4F-2114F5667128}" name="Columna18" headerRowDxfId="5" dataDxfId="4" totalsRowDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{0AB2AFC2-4177-41AF-B59A-DA308BAC2C10}" name="Columna19" totalsRowFunction="count" headerRowDxfId="2" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Columna1" totalsRowLabel="Total" headerRowDxfId="56" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="2" name="Columna2" headerRowDxfId="53" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="3" name="Columna3" headerRowDxfId="50" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="4" name="Columna4" headerRowDxfId="47" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="5" name="Columna5" headerRowDxfId="44" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="6" name="Columna6" headerRowDxfId="41" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="7" name="Columna7" headerRowDxfId="38" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="8" name="Columna8" headerRowDxfId="35" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="9" name="Columna9" headerRowDxfId="32" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="10" name="Columna10" headerRowDxfId="29" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="11" name="Columna11" headerRowDxfId="26" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="12" name="Columna12" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="13" name="Columna13" headerRowDxfId="20" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="14" name="Columna14" headerRowDxfId="17" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="15" name="Columna15" headerRowDxfId="14" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="16" name="Columna16" headerRowDxfId="11" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="17" name="Columna17" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="18" name="Columna18" headerRowDxfId="5" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="19" name="Columna19" totalsRowFunction="count" headerRowDxfId="2" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1345,14 +1324,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4B734D-5514-40E2-AE61-5B9B4DE702FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -1361,7 +1340,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -1407,7 +1386,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D3" s="10">
         <v>16</v>
@@ -1463,75 +1442,75 @@
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="7">
         <v>16</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S4" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
@@ -1550,19 +1529,19 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="15"/>
@@ -1581,10 +1560,10 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="7">
         <v>12</v>
@@ -1594,55 +1573,55 @@
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
       <c r="H7" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S7" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
@@ -1661,10 +1640,10 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="7">
         <v>4</v>
@@ -1672,16 +1651,16 @@
       <c r="D9" s="13"/>
       <c r="E9" s="14"/>
       <c r="F9" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="15"/>
@@ -1696,10 +1675,10 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="7">
         <v>12</v>
@@ -1709,48 +1688,48 @@
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
       <c r="H10" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q10" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R10" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S10" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -1761,7 +1740,7 @@
       <c r="G11" s="15"/>
       <c r="H11" s="13"/>
       <c r="I11" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="15"/>
@@ -1776,10 +1755,10 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
@@ -1791,7 +1770,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="14"/>
       <c r="J12" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="13"/>
@@ -1805,10 +1784,10 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
         <v>2</v>
@@ -1821,10 +1800,10 @@
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
@@ -1836,10 +1815,10 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>3</v>
@@ -1853,13 +1832,13 @@
       <c r="J14" s="14"/>
       <c r="K14" s="15"/>
       <c r="L14" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="13"/>
@@ -1869,10 +1848,10 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="7">
         <v>4</v>
@@ -1884,16 +1863,16 @@
       <c r="H15" s="13"/>
       <c r="I15" s="14"/>
       <c r="J15" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N15" s="14"/>
       <c r="O15" s="15"/>
@@ -1904,10 +1883,10 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="7">
         <v>3</v>
@@ -1921,13 +1900,13 @@
       <c r="J16" s="14"/>
       <c r="K16" s="15"/>
       <c r="L16" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O16" s="15"/>
       <c r="P16" s="13"/>
@@ -1937,10 +1916,10 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
@@ -1957,10 +1936,10 @@
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
       <c r="O17" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P17" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
@@ -1968,10 +1947,10 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="7">
         <v>2</v>
@@ -1989,20 +1968,20 @@
       <c r="N18" s="14"/>
       <c r="O18" s="15"/>
       <c r="P18" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q18" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R18" s="14"/>
       <c r="S18" s="15"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="7">
         <v>7</v>
@@ -2015,35 +1994,35 @@
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O19" s="15"/>
       <c r="P19" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q19" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R19" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S19" s="15"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -2062,17 +2041,17 @@
       <c r="O20" s="15"/>
       <c r="P20" s="13"/>
       <c r="Q20" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R20" s="14"/>
       <c r="S20" s="15"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="8">
         <v>2</v>
@@ -2091,30 +2070,30 @@
       <c r="O21" s="18"/>
       <c r="P21" s="16"/>
       <c r="Q21" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R21" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S21" s="18"/>
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B23" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="28"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="30"/>
